--- a/GUI checklist.xlsx
+++ b/GUI checklist.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Testing\Project\2021.APCS.CS423.GroupG.2-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7D2A63-140C-405D-9FE3-07B71E622296}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Quản lý giỏ hàng" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Gửi thông tin liên hệ" sheetId="2" r:id="rId5"/>
+    <sheet name="Gửi thông tin liên hệ" sheetId="2" r:id="rId1"/>
+    <sheet name="Quản lý giỏ hàng" sheetId="1" r:id="rId2"/>
+    <sheet name="Trang chủ" sheetId="5" r:id="rId3"/>
+    <sheet name="Sản phẩm" sheetId="6" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="236">
   <si>
     <t>GUI ID</t>
   </si>
@@ -708,60 +719,90 @@
   </si>
   <si>
     <t>http://mymarket-2.apphb.com/Contact.aspx</t>
+  </si>
+  <si>
+    <t>Trang chủ</t>
+  </si>
+  <si>
+    <t>http://mymarket-2.apphb.com/Default.aspx</t>
+  </si>
+  <si>
+    <t>Sản phẩm</t>
+  </si>
+  <si>
+    <t>http://mymarket-2.apphb.com/Products.aspx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -769,7 +810,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -797,138 +838,133 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+  <cellXfs count="40">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1118,56 +1154,59 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="77.86"/>
+    <col min="2" max="2" width="77.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="33" t="s">
+        <v>229</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="33" t="s">
+        <v>230</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
+      <c r="B3" s="34" t="s">
+        <v>231</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1184,9 +1223,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>11</v>
@@ -1195,9 +1234,9 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="13">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>12</v>
@@ -1206,7 +1245,7 @@
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
@@ -1219,7 +1258,7 @@
       <c r="D7" s="19"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="20" t="s">
         <v>16</v>
       </c>
@@ -1232,7 +1271,7 @@
       <c r="D8" s="23"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>18</v>
       </c>
@@ -1245,7 +1284,7 @@
       <c r="D9" s="19"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -1258,7 +1297,7 @@
       <c r="D10" s="23"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>22</v>
       </c>
@@ -1271,7 +1310,7 @@
       </c>
       <c r="E11" s="12"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
@@ -1284,7 +1323,7 @@
       <c r="D12" s="23"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>26</v>
       </c>
@@ -1297,7 +1336,7 @@
       </c>
       <c r="E13" s="12"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="13">
         <v>1.2</v>
       </c>
@@ -1308,7 +1347,7 @@
       <c r="D14" s="23"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>29</v>
       </c>
@@ -1321,7 +1360,7 @@
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>31</v>
       </c>
@@ -1334,7 +1373,7 @@
       </c>
       <c r="E16" s="15"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>33</v>
       </c>
@@ -1347,7 +1386,7 @@
       <c r="D17" s="19"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="20" t="s">
         <v>35</v>
       </c>
@@ -1360,7 +1399,7 @@
       <c r="D18" s="23"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>37</v>
       </c>
@@ -1373,7 +1412,7 @@
       <c r="D19" s="19"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="20" t="s">
         <v>39</v>
       </c>
@@ -1386,7 +1425,7 @@
       </c>
       <c r="E20" s="15"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="16" t="s">
         <v>41</v>
       </c>
@@ -1399,7 +1438,7 @@
       </c>
       <c r="E21" s="12"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="20" t="s">
         <v>43</v>
       </c>
@@ -1412,7 +1451,7 @@
       <c r="D22" s="23"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" ht="15">
       <c r="A23" s="16" t="s">
         <v>45</v>
       </c>
@@ -1425,7 +1464,7 @@
       <c r="D23" s="19"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" ht="15">
       <c r="A24" s="20" t="s">
         <v>47</v>
       </c>
@@ -1438,7 +1477,7 @@
       <c r="D24" s="23"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="16" t="s">
         <v>49</v>
       </c>
@@ -1451,7 +1490,7 @@
       <c r="D25" s="19"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" ht="15">
       <c r="A26" s="13">
         <v>1.3</v>
       </c>
@@ -1462,7 +1501,7 @@
       <c r="D26" s="23"/>
       <c r="E26" s="15"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" ht="30">
       <c r="A27" s="16" t="s">
         <v>52</v>
       </c>
@@ -1475,7 +1514,7 @@
       <c r="D27" s="19"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" ht="15">
       <c r="A28" s="20" t="s">
         <v>54</v>
       </c>
@@ -1488,7 +1527,7 @@
       <c r="D28" s="23"/>
       <c r="E28" s="15"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" ht="15">
       <c r="A29" s="16" t="s">
         <v>56</v>
       </c>
@@ -1501,7 +1540,7 @@
       <c r="D29" s="19"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" ht="15">
       <c r="A30" s="20" t="s">
         <v>58</v>
       </c>
@@ -1514,7 +1553,7 @@
       <c r="D30" s="23"/>
       <c r="E30" s="15"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" ht="15">
       <c r="A31" s="16" t="s">
         <v>60</v>
       </c>
@@ -1527,7 +1566,7 @@
       </c>
       <c r="E31" s="12"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" ht="15">
       <c r="A32" s="20" t="s">
         <v>62</v>
       </c>
@@ -1540,7 +1579,7 @@
       <c r="D32" s="23"/>
       <c r="E32" s="15"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="15">
       <c r="A33" s="16" t="s">
         <v>64</v>
       </c>
@@ -1553,7 +1592,7 @@
       <c r="D33" s="19"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="15">
       <c r="A34" s="20" t="s">
         <v>66</v>
       </c>
@@ -1566,7 +1605,7 @@
       <c r="D34" s="23"/>
       <c r="E34" s="15"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="15">
       <c r="A35" s="16" t="s">
         <v>68</v>
       </c>
@@ -1579,7 +1618,7 @@
       <c r="D35" s="19"/>
       <c r="E35" s="12"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="15">
       <c r="A36" s="20" t="s">
         <v>70</v>
       </c>
@@ -1592,7 +1631,7 @@
       <c r="D36" s="23"/>
       <c r="E36" s="15"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="15">
       <c r="A37" s="16" t="s">
         <v>72</v>
       </c>
@@ -1605,7 +1644,7 @@
       <c r="D37" s="19"/>
       <c r="E37" s="12"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" ht="15">
       <c r="A38" s="20" t="s">
         <v>74</v>
       </c>
@@ -1618,7 +1657,7 @@
       <c r="D38" s="23"/>
       <c r="E38" s="15"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" ht="15">
       <c r="A39" s="16" t="s">
         <v>76</v>
       </c>
@@ -1631,7 +1670,7 @@
       <c r="D39" s="19"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" ht="15">
       <c r="A40" s="20" t="s">
         <v>78</v>
       </c>
@@ -1644,7 +1683,7 @@
       <c r="D40" s="23"/>
       <c r="E40" s="15"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" ht="15">
       <c r="A41" s="16" t="s">
         <v>80</v>
       </c>
@@ -1657,7 +1696,7 @@
       <c r="D41" s="19"/>
       <c r="E41" s="12"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" ht="15">
       <c r="A42" s="20" t="s">
         <v>82</v>
       </c>
@@ -1670,7 +1709,7 @@
       <c r="D42" s="23"/>
       <c r="E42" s="15"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" ht="15">
       <c r="A43" s="16" t="s">
         <v>84</v>
       </c>
@@ -1683,7 +1722,7 @@
       <c r="D43" s="19"/>
       <c r="E43" s="12"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" ht="30">
       <c r="A44" s="20" t="s">
         <v>86</v>
       </c>
@@ -1696,7 +1735,7 @@
       <c r="D44" s="23"/>
       <c r="E44" s="15"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" ht="15">
       <c r="A45" s="16" t="s">
         <v>88</v>
       </c>
@@ -1709,7 +1748,7 @@
       </c>
       <c r="E45" s="12"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" ht="15">
       <c r="A46" s="13">
         <v>1.4</v>
       </c>
@@ -1720,7 +1759,7 @@
       <c r="D46" s="23"/>
       <c r="E46" s="15"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" ht="15">
       <c r="A47" s="16" t="s">
         <v>91</v>
       </c>
@@ -1733,7 +1772,7 @@
       <c r="D47" s="19"/>
       <c r="E47" s="12"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" ht="15">
       <c r="A48" s="20" t="s">
         <v>93</v>
       </c>
@@ -1746,7 +1785,7 @@
       <c r="D48" s="23"/>
       <c r="E48" s="15"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" ht="15">
       <c r="A49" s="16" t="s">
         <v>95</v>
       </c>
@@ -1759,7 +1798,7 @@
       <c r="D49" s="19"/>
       <c r="E49" s="12"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" ht="30">
       <c r="A50" s="20" t="s">
         <v>97</v>
       </c>
@@ -1772,7 +1811,7 @@
       <c r="D50" s="23"/>
       <c r="E50" s="15"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" ht="30">
       <c r="A51" s="16" t="s">
         <v>99</v>
       </c>
@@ -1785,7 +1824,7 @@
       <c r="D51" s="19"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" ht="15">
       <c r="A52" s="20" t="s">
         <v>101</v>
       </c>
@@ -1798,7 +1837,7 @@
       <c r="D52" s="23"/>
       <c r="E52" s="15"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" ht="30">
       <c r="A53" s="16" t="s">
         <v>103</v>
       </c>
@@ -1811,7 +1850,7 @@
       <c r="D53" s="19"/>
       <c r="E53" s="12"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" ht="15">
       <c r="A54" s="13">
         <v>1.5</v>
       </c>
@@ -1822,7 +1861,7 @@
       <c r="D54" s="23"/>
       <c r="E54" s="15"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" ht="15">
       <c r="A55" s="24" t="s">
         <v>106</v>
       </c>
@@ -1833,7 +1872,7 @@
       <c r="D55" s="19"/>
       <c r="E55" s="12"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" ht="15">
       <c r="A56" s="26" t="s">
         <v>108</v>
       </c>
@@ -1846,20 +1885,20 @@
       <c r="D56" s="23"/>
       <c r="E56" s="15"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" ht="30">
       <c r="A57" s="28" t="s">
         <v>110</v>
       </c>
       <c r="B57" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="18" t="s">
-        <v>15</v>
-      </c>
+      <c r="C57" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="35"/>
       <c r="E57" s="12"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" ht="30">
       <c r="A58" s="26" t="s">
         <v>112</v>
       </c>
@@ -1872,7 +1911,7 @@
       <c r="D58" s="23"/>
       <c r="E58" s="15"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" ht="30">
       <c r="A59" s="28" t="s">
         <v>114</v>
       </c>
@@ -1885,7 +1924,7 @@
       <c r="D59" s="19"/>
       <c r="E59" s="12"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" ht="15">
       <c r="A60" s="26" t="s">
         <v>116</v>
       </c>
@@ -1898,7 +1937,7 @@
       <c r="D60" s="23"/>
       <c r="E60" s="15"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" ht="15">
       <c r="A61" s="28" t="s">
         <v>118</v>
       </c>
@@ -1911,7 +1950,7 @@
       <c r="D61" s="19"/>
       <c r="E61" s="12"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" ht="15">
       <c r="A62" s="26" t="s">
         <v>120</v>
       </c>
@@ -1924,7 +1963,7 @@
       <c r="D62" s="23"/>
       <c r="E62" s="15"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" ht="15">
       <c r="A63" s="10" t="s">
         <v>122</v>
       </c>
@@ -1935,7 +1974,7 @@
       <c r="D63" s="19"/>
       <c r="E63" s="12"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" ht="15">
       <c r="A64" s="20" t="s">
         <v>124</v>
       </c>
@@ -1948,7 +1987,7 @@
       </c>
       <c r="E64" s="15"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" ht="15">
       <c r="A65" s="16" t="s">
         <v>126</v>
       </c>
@@ -1961,7 +2000,7 @@
       </c>
       <c r="E65" s="12"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" ht="15">
       <c r="A66" s="20" t="s">
         <v>128</v>
       </c>
@@ -1974,7 +2013,7 @@
       </c>
       <c r="E66" s="15"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" ht="15">
       <c r="A67" s="16" t="s">
         <v>130</v>
       </c>
@@ -1987,7 +2026,7 @@
       <c r="D67" s="19"/>
       <c r="E67" s="12"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" ht="15">
       <c r="A68" s="13" t="s">
         <v>132</v>
       </c>
@@ -1998,7 +2037,7 @@
       <c r="D68" s="23"/>
       <c r="E68" s="15"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" ht="15">
       <c r="A69" s="16" t="s">
         <v>134</v>
       </c>
@@ -2011,7 +2050,7 @@
       <c r="D69" s="19"/>
       <c r="E69" s="12"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" ht="15">
       <c r="A70" s="20" t="s">
         <v>136</v>
       </c>
@@ -2024,7 +2063,7 @@
       <c r="D70" s="23"/>
       <c r="E70" s="15"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" ht="15">
       <c r="A71" s="16" t="s">
         <v>137</v>
       </c>
@@ -2037,7 +2076,7 @@
       </c>
       <c r="E71" s="12"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" ht="15">
       <c r="A72" s="20" t="s">
         <v>139</v>
       </c>
@@ -2050,7 +2089,7 @@
       </c>
       <c r="E72" s="15"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" ht="15">
       <c r="A73" s="16" t="s">
         <v>141</v>
       </c>
@@ -2063,7 +2102,7 @@
       <c r="D73" s="19"/>
       <c r="E73" s="12"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" ht="15">
       <c r="A74" s="20" t="s">
         <v>142</v>
       </c>
@@ -2076,7 +2115,7 @@
       <c r="D74" s="23"/>
       <c r="E74" s="15"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" ht="15">
       <c r="A75" s="16" t="s">
         <v>144</v>
       </c>
@@ -2089,7 +2128,7 @@
       <c r="D75" s="19"/>
       <c r="E75" s="12"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" ht="15">
       <c r="A76" s="20" t="s">
         <v>146</v>
       </c>
@@ -2102,7 +2141,7 @@
       <c r="D76" s="23"/>
       <c r="E76" s="15"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" ht="15">
       <c r="A77" s="16" t="s">
         <v>148</v>
       </c>
@@ -2115,7 +2154,7 @@
       <c r="D77" s="19"/>
       <c r="E77" s="12"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" ht="15">
       <c r="A78" s="20" t="s">
         <v>150</v>
       </c>
@@ -2128,9 +2167,9 @@
       <c r="D78" s="23"/>
       <c r="E78" s="15"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" ht="15">
       <c r="A79" s="32">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>152</v>
@@ -2139,7 +2178,7 @@
       <c r="D79" s="19"/>
       <c r="E79" s="12"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" ht="15">
       <c r="A80" s="13">
         <v>2.1</v>
       </c>
@@ -2150,7 +2189,7 @@
       <c r="D80" s="23"/>
       <c r="E80" s="15"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" ht="15">
       <c r="A81" s="16" t="s">
         <v>154</v>
       </c>
@@ -2163,7 +2202,7 @@
       <c r="D81" s="19"/>
       <c r="E81" s="12"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" ht="15">
       <c r="A82" s="20" t="s">
         <v>156</v>
       </c>
@@ -2176,7 +2215,7 @@
       <c r="D82" s="23"/>
       <c r="E82" s="15"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" ht="15">
       <c r="A83" s="16" t="s">
         <v>158</v>
       </c>
@@ -2189,7 +2228,7 @@
       <c r="D83" s="19"/>
       <c r="E83" s="12"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" ht="15">
       <c r="A84" s="20" t="s">
         <v>160</v>
       </c>
@@ -2202,7 +2241,7 @@
       <c r="D84" s="23"/>
       <c r="E84" s="15"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" ht="15">
       <c r="A85" s="16" t="s">
         <v>162</v>
       </c>
@@ -2215,7 +2254,7 @@
       <c r="D85" s="19"/>
       <c r="E85" s="12"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" ht="15">
       <c r="A86" s="20" t="s">
         <v>164</v>
       </c>
@@ -2228,7 +2267,7 @@
       <c r="D86" s="23"/>
       <c r="E86" s="15"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" ht="15">
       <c r="A87" s="16" t="s">
         <v>166</v>
       </c>
@@ -2241,7 +2280,7 @@
       <c r="D87" s="19"/>
       <c r="E87" s="12"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" ht="30">
       <c r="A88" s="20" t="s">
         <v>168</v>
       </c>
@@ -2254,7 +2293,7 @@
       <c r="D88" s="23"/>
       <c r="E88" s="15"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" ht="15">
       <c r="A89" s="16" t="s">
         <v>170</v>
       </c>
@@ -2267,7 +2306,7 @@
       <c r="D89" s="19"/>
       <c r="E89" s="12"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" ht="15">
       <c r="A90" s="20" t="s">
         <v>172</v>
       </c>
@@ -2280,9 +2319,9 @@
       <c r="D90" s="23"/>
       <c r="E90" s="15"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" ht="15">
       <c r="A91" s="10">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>174</v>
@@ -2291,7 +2330,7 @@
       <c r="D91" s="19"/>
       <c r="E91" s="12"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" ht="15">
       <c r="A92" s="20" t="s">
         <v>175</v>
       </c>
@@ -2304,7 +2343,7 @@
       <c r="D92" s="23"/>
       <c r="E92" s="15"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" ht="15">
       <c r="A93" s="16" t="s">
         <v>177</v>
       </c>
@@ -2317,7 +2356,7 @@
       <c r="D93" s="19"/>
       <c r="E93" s="12"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" ht="30">
       <c r="A94" s="20" t="s">
         <v>179</v>
       </c>
@@ -2330,7 +2369,7 @@
       </c>
       <c r="E94" s="15"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" ht="15">
       <c r="A95" s="16" t="s">
         <v>181</v>
       </c>
@@ -2343,7 +2382,7 @@
       <c r="D95" s="19"/>
       <c r="E95" s="12"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" ht="15">
       <c r="A96" s="20" t="s">
         <v>183</v>
       </c>
@@ -2356,7 +2395,7 @@
       <c r="D96" s="23"/>
       <c r="E96" s="15"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5" ht="15">
       <c r="A97" s="16" t="s">
         <v>185</v>
       </c>
@@ -2369,7 +2408,7 @@
       </c>
       <c r="E97" s="12"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5" ht="15">
       <c r="A98" s="20" t="s">
         <v>187</v>
       </c>
@@ -2382,7 +2421,7 @@
       </c>
       <c r="E98" s="15"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5" ht="15">
       <c r="A99" s="16" t="s">
         <v>189</v>
       </c>
@@ -2395,7 +2434,7 @@
       <c r="D99" s="19"/>
       <c r="E99" s="12"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" ht="15">
       <c r="A100" s="20" t="s">
         <v>191</v>
       </c>
@@ -2408,7 +2447,7 @@
       <c r="D100" s="23"/>
       <c r="E100" s="15"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" ht="15">
       <c r="A101" s="16" t="s">
         <v>193</v>
       </c>
@@ -2421,7 +2460,7 @@
       <c r="D101" s="19"/>
       <c r="E101" s="12"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:5" ht="15">
       <c r="A102" s="20" t="s">
         <v>195</v>
       </c>
@@ -2434,7 +2473,7 @@
       </c>
       <c r="E102" s="15"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:5" ht="15">
       <c r="A103" s="16" t="s">
         <v>197</v>
       </c>
@@ -2447,9 +2486,9 @@
       </c>
       <c r="E103" s="12"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5" ht="15">
       <c r="A104" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>199</v>
@@ -2458,7 +2497,7 @@
       <c r="D104" s="23"/>
       <c r="E104" s="15"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5" ht="15">
       <c r="A105" s="10">
         <v>3.1</v>
       </c>
@@ -2469,7 +2508,7 @@
       <c r="D105" s="19"/>
       <c r="E105" s="12"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:5" ht="30">
       <c r="A106" s="20" t="s">
         <v>201</v>
       </c>
@@ -2482,7 +2521,7 @@
       <c r="D106" s="23"/>
       <c r="E106" s="15"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:5" ht="15">
       <c r="A107" s="16" t="s">
         <v>203</v>
       </c>
@@ -2495,7 +2534,7 @@
       <c r="D107" s="19"/>
       <c r="E107" s="12"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5" ht="15">
       <c r="A108" s="20" t="s">
         <v>205</v>
       </c>
@@ -2508,7 +2547,7 @@
       <c r="D108" s="23"/>
       <c r="E108" s="15"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:5" ht="15">
       <c r="A109" s="16" t="s">
         <v>207</v>
       </c>
@@ -2521,7 +2560,7 @@
       <c r="D109" s="19"/>
       <c r="E109" s="12"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:5" ht="15">
       <c r="A110" s="20" t="s">
         <v>209</v>
       </c>
@@ -2534,7 +2573,7 @@
       </c>
       <c r="E110" s="15"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:5" ht="30">
       <c r="A111" s="16" t="s">
         <v>211</v>
       </c>
@@ -2547,7 +2586,7 @@
       <c r="D111" s="19"/>
       <c r="E111" s="12"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:5" ht="15">
       <c r="A112" s="13">
         <v>3.2</v>
       </c>
@@ -2558,7 +2597,7 @@
       <c r="D112" s="23"/>
       <c r="E112" s="15"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5" ht="30">
       <c r="A113" s="16" t="s">
         <v>214</v>
       </c>
@@ -2571,7 +2610,7 @@
       <c r="D113" s="19"/>
       <c r="E113" s="12"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:5" ht="15">
       <c r="A114" s="20" t="s">
         <v>216</v>
       </c>
@@ -2584,7 +2623,7 @@
       <c r="D114" s="23"/>
       <c r="E114" s="15"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:5" ht="15">
       <c r="A115" s="10">
         <v>3.3</v>
       </c>
@@ -2595,7 +2634,7 @@
       <c r="D115" s="19"/>
       <c r="E115" s="12"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:5" ht="15">
       <c r="A116" s="20" t="s">
         <v>219</v>
       </c>
@@ -2608,7 +2647,7 @@
       <c r="D116" s="23"/>
       <c r="E116" s="15"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:5" ht="15">
       <c r="A117" s="16" t="s">
         <v>221</v>
       </c>
@@ -2621,7 +2660,7 @@
       <c r="D117" s="19"/>
       <c r="E117" s="12"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:5" ht="15">
       <c r="A118" s="20" t="s">
         <v>223</v>
       </c>
@@ -2634,7 +2673,7 @@
       <c r="D118" s="23"/>
       <c r="E118" s="15"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:5" ht="15">
       <c r="A119" s="16" t="s">
         <v>225</v>
       </c>
@@ -2647,7 +2686,7 @@
       <c r="D119" s="19"/>
       <c r="E119" s="12"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:5" ht="15">
       <c r="A120" s="20" t="s">
         <v>227</v>
       </c>
@@ -2662,59 +2701,62 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E120"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="77.86"/>
+    <col min="2" max="2" width="77.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>229</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>230</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>231</v>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2731,9 +2773,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>11</v>
@@ -2742,9 +2784,9 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="13">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>12</v>
@@ -2753,7 +2795,7 @@
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
@@ -2766,7 +2808,7 @@
       <c r="D7" s="19"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="20" t="s">
         <v>16</v>
       </c>
@@ -2779,7 +2821,7 @@
       <c r="D8" s="23"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>18</v>
       </c>
@@ -2792,7 +2834,7 @@
       <c r="D9" s="19"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -2805,7 +2847,7 @@
       <c r="D10" s="23"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>22</v>
       </c>
@@ -2818,7 +2860,7 @@
       </c>
       <c r="E11" s="12"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
@@ -2831,7 +2873,7 @@
       <c r="D12" s="23"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>26</v>
       </c>
@@ -2844,7 +2886,7 @@
       </c>
       <c r="E13" s="12"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="13">
         <v>1.2</v>
       </c>
@@ -2855,7 +2897,7 @@
       <c r="D14" s="23"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>29</v>
       </c>
@@ -2868,7 +2910,7 @@
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>31</v>
       </c>
@@ -2881,7 +2923,7 @@
       </c>
       <c r="E16" s="15"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>33</v>
       </c>
@@ -2894,7 +2936,7 @@
       <c r="D17" s="19"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="20" t="s">
         <v>35</v>
       </c>
@@ -2907,7 +2949,7 @@
       <c r="D18" s="23"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>37</v>
       </c>
@@ -2920,7 +2962,7 @@
       <c r="D19" s="19"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="20" t="s">
         <v>39</v>
       </c>
@@ -2933,7 +2975,7 @@
       </c>
       <c r="E20" s="15"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="16" t="s">
         <v>41</v>
       </c>
@@ -2946,7 +2988,7 @@
       </c>
       <c r="E21" s="12"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="20" t="s">
         <v>43</v>
       </c>
@@ -2959,7 +3001,7 @@
       <c r="D22" s="23"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" ht="15">
       <c r="A23" s="16" t="s">
         <v>45</v>
       </c>
@@ -2972,7 +3014,7 @@
       <c r="D23" s="19"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" ht="15">
       <c r="A24" s="20" t="s">
         <v>47</v>
       </c>
@@ -2985,7 +3027,7 @@
       <c r="D24" s="23"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="16" t="s">
         <v>49</v>
       </c>
@@ -2998,7 +3040,7 @@
       <c r="D25" s="19"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" ht="15">
       <c r="A26" s="13">
         <v>1.3</v>
       </c>
@@ -3009,7 +3051,7 @@
       <c r="D26" s="23"/>
       <c r="E26" s="15"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" ht="30">
       <c r="A27" s="16" t="s">
         <v>52</v>
       </c>
@@ -3022,7 +3064,7 @@
       <c r="D27" s="19"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" ht="15">
       <c r="A28" s="20" t="s">
         <v>54</v>
       </c>
@@ -3035,7 +3077,7 @@
       <c r="D28" s="23"/>
       <c r="E28" s="15"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" ht="15">
       <c r="A29" s="16" t="s">
         <v>56</v>
       </c>
@@ -3048,7 +3090,7 @@
       <c r="D29" s="19"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" ht="15">
       <c r="A30" s="20" t="s">
         <v>58</v>
       </c>
@@ -3061,7 +3103,7 @@
       <c r="D30" s="23"/>
       <c r="E30" s="15"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" ht="15">
       <c r="A31" s="16" t="s">
         <v>60</v>
       </c>
@@ -3074,7 +3116,7 @@
       </c>
       <c r="E31" s="12"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" ht="15">
       <c r="A32" s="20" t="s">
         <v>62</v>
       </c>
@@ -3087,7 +3129,7 @@
       <c r="D32" s="23"/>
       <c r="E32" s="15"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="15">
       <c r="A33" s="16" t="s">
         <v>64</v>
       </c>
@@ -3100,7 +3142,7 @@
       <c r="D33" s="19"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="15">
       <c r="A34" s="20" t="s">
         <v>66</v>
       </c>
@@ -3113,7 +3155,7 @@
       <c r="D34" s="23"/>
       <c r="E34" s="15"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="15">
       <c r="A35" s="16" t="s">
         <v>68</v>
       </c>
@@ -3126,7 +3168,7 @@
       <c r="D35" s="19"/>
       <c r="E35" s="12"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="15">
       <c r="A36" s="20" t="s">
         <v>70</v>
       </c>
@@ -3139,7 +3181,7 @@
       <c r="D36" s="23"/>
       <c r="E36" s="15"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="15">
       <c r="A37" s="16" t="s">
         <v>72</v>
       </c>
@@ -3152,7 +3194,7 @@
       <c r="D37" s="19"/>
       <c r="E37" s="12"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" ht="15">
       <c r="A38" s="20" t="s">
         <v>74</v>
       </c>
@@ -3165,7 +3207,7 @@
       <c r="D38" s="23"/>
       <c r="E38" s="15"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" ht="15">
       <c r="A39" s="16" t="s">
         <v>76</v>
       </c>
@@ -3178,7 +3220,7 @@
       <c r="D39" s="19"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" ht="15">
       <c r="A40" s="20" t="s">
         <v>78</v>
       </c>
@@ -3191,7 +3233,7 @@
       <c r="D40" s="23"/>
       <c r="E40" s="15"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" ht="15">
       <c r="A41" s="16" t="s">
         <v>80</v>
       </c>
@@ -3204,7 +3246,7 @@
       <c r="D41" s="19"/>
       <c r="E41" s="12"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" ht="15">
       <c r="A42" s="20" t="s">
         <v>82</v>
       </c>
@@ -3217,7 +3259,7 @@
       <c r="D42" s="23"/>
       <c r="E42" s="15"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" ht="15">
       <c r="A43" s="16" t="s">
         <v>84</v>
       </c>
@@ -3230,7 +3272,7 @@
       <c r="D43" s="19"/>
       <c r="E43" s="12"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" ht="30">
       <c r="A44" s="20" t="s">
         <v>86</v>
       </c>
@@ -3243,7 +3285,7 @@
       <c r="D44" s="23"/>
       <c r="E44" s="15"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" ht="15">
       <c r="A45" s="16" t="s">
         <v>88</v>
       </c>
@@ -3256,7 +3298,7 @@
       </c>
       <c r="E45" s="12"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" ht="15">
       <c r="A46" s="13">
         <v>1.4</v>
       </c>
@@ -3267,7 +3309,7 @@
       <c r="D46" s="23"/>
       <c r="E46" s="15"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" ht="15">
       <c r="A47" s="16" t="s">
         <v>91</v>
       </c>
@@ -3280,7 +3322,7 @@
       <c r="D47" s="19"/>
       <c r="E47" s="12"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" ht="15">
       <c r="A48" s="20" t="s">
         <v>93</v>
       </c>
@@ -3293,7 +3335,7 @@
       <c r="D48" s="23"/>
       <c r="E48" s="15"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" ht="15">
       <c r="A49" s="16" t="s">
         <v>95</v>
       </c>
@@ -3306,7 +3348,7 @@
       <c r="D49" s="19"/>
       <c r="E49" s="12"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" ht="30">
       <c r="A50" s="20" t="s">
         <v>97</v>
       </c>
@@ -3319,7 +3361,7 @@
       <c r="D50" s="23"/>
       <c r="E50" s="15"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" ht="30">
       <c r="A51" s="16" t="s">
         <v>99</v>
       </c>
@@ -3332,7 +3374,7 @@
       <c r="D51" s="19"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" ht="15">
       <c r="A52" s="20" t="s">
         <v>101</v>
       </c>
@@ -3345,7 +3387,7 @@
       <c r="D52" s="23"/>
       <c r="E52" s="15"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" ht="30">
       <c r="A53" s="16" t="s">
         <v>103</v>
       </c>
@@ -3358,7 +3400,7 @@
       <c r="D53" s="19"/>
       <c r="E53" s="12"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" ht="15">
       <c r="A54" s="13">
         <v>1.5</v>
       </c>
@@ -3369,7 +3411,7 @@
       <c r="D54" s="23"/>
       <c r="E54" s="15"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" ht="15">
       <c r="A55" s="24" t="s">
         <v>106</v>
       </c>
@@ -3380,7 +3422,7 @@
       <c r="D55" s="19"/>
       <c r="E55" s="12"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" ht="15">
       <c r="A56" s="26" t="s">
         <v>108</v>
       </c>
@@ -3393,20 +3435,20 @@
       <c r="D56" s="23"/>
       <c r="E56" s="15"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" ht="30">
       <c r="A57" s="28" t="s">
         <v>110</v>
       </c>
       <c r="B57" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="35"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="E57" s="12"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" ht="30">
       <c r="A58" s="26" t="s">
         <v>112</v>
       </c>
@@ -3419,7 +3461,7 @@
       <c r="D58" s="23"/>
       <c r="E58" s="15"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" ht="30">
       <c r="A59" s="28" t="s">
         <v>114</v>
       </c>
@@ -3432,7 +3474,7 @@
       <c r="D59" s="19"/>
       <c r="E59" s="12"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" ht="15">
       <c r="A60" s="26" t="s">
         <v>116</v>
       </c>
@@ -3445,7 +3487,7 @@
       <c r="D60" s="23"/>
       <c r="E60" s="15"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" ht="15">
       <c r="A61" s="28" t="s">
         <v>118</v>
       </c>
@@ -3458,7 +3500,7 @@
       <c r="D61" s="19"/>
       <c r="E61" s="12"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" ht="15">
       <c r="A62" s="26" t="s">
         <v>120</v>
       </c>
@@ -3471,7 +3513,7 @@
       <c r="D62" s="23"/>
       <c r="E62" s="15"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" ht="15">
       <c r="A63" s="10" t="s">
         <v>122</v>
       </c>
@@ -3482,7 +3524,7 @@
       <c r="D63" s="19"/>
       <c r="E63" s="12"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" ht="15">
       <c r="A64" s="20" t="s">
         <v>124</v>
       </c>
@@ -3495,7 +3537,7 @@
       </c>
       <c r="E64" s="15"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" ht="15">
       <c r="A65" s="16" t="s">
         <v>126</v>
       </c>
@@ -3508,7 +3550,7 @@
       </c>
       <c r="E65" s="12"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" ht="15">
       <c r="A66" s="20" t="s">
         <v>128</v>
       </c>
@@ -3521,7 +3563,7 @@
       </c>
       <c r="E66" s="15"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" ht="15">
       <c r="A67" s="16" t="s">
         <v>130</v>
       </c>
@@ -3534,7 +3576,7 @@
       <c r="D67" s="19"/>
       <c r="E67" s="12"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" ht="15">
       <c r="A68" s="13" t="s">
         <v>132</v>
       </c>
@@ -3545,7 +3587,7 @@
       <c r="D68" s="23"/>
       <c r="E68" s="15"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" ht="15">
       <c r="A69" s="16" t="s">
         <v>134</v>
       </c>
@@ -3558,7 +3600,7 @@
       <c r="D69" s="19"/>
       <c r="E69" s="12"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" ht="15">
       <c r="A70" s="20" t="s">
         <v>136</v>
       </c>
@@ -3571,7 +3613,7 @@
       <c r="D70" s="23"/>
       <c r="E70" s="15"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" ht="15">
       <c r="A71" s="16" t="s">
         <v>137</v>
       </c>
@@ -3584,7 +3626,7 @@
       </c>
       <c r="E71" s="12"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" ht="15">
       <c r="A72" s="20" t="s">
         <v>139</v>
       </c>
@@ -3597,7 +3639,7 @@
       </c>
       <c r="E72" s="15"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" ht="15">
       <c r="A73" s="16" t="s">
         <v>141</v>
       </c>
@@ -3610,7 +3652,7 @@
       <c r="D73" s="19"/>
       <c r="E73" s="12"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" ht="15">
       <c r="A74" s="20" t="s">
         <v>142</v>
       </c>
@@ -3623,7 +3665,7 @@
       <c r="D74" s="23"/>
       <c r="E74" s="15"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" ht="15">
       <c r="A75" s="16" t="s">
         <v>144</v>
       </c>
@@ -3636,7 +3678,7 @@
       <c r="D75" s="19"/>
       <c r="E75" s="12"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" ht="15">
       <c r="A76" s="20" t="s">
         <v>146</v>
       </c>
@@ -3649,7 +3691,7 @@
       <c r="D76" s="23"/>
       <c r="E76" s="15"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" ht="15">
       <c r="A77" s="16" t="s">
         <v>148</v>
       </c>
@@ -3662,7 +3704,7 @@
       <c r="D77" s="19"/>
       <c r="E77" s="12"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" ht="15">
       <c r="A78" s="20" t="s">
         <v>150</v>
       </c>
@@ -3675,9 +3717,9 @@
       <c r="D78" s="23"/>
       <c r="E78" s="15"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" ht="15">
       <c r="A79" s="32">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>152</v>
@@ -3686,7 +3728,7 @@
       <c r="D79" s="19"/>
       <c r="E79" s="12"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" ht="15">
       <c r="A80" s="13">
         <v>2.1</v>
       </c>
@@ -3697,7 +3739,7 @@
       <c r="D80" s="23"/>
       <c r="E80" s="15"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" ht="15">
       <c r="A81" s="16" t="s">
         <v>154</v>
       </c>
@@ -3710,7 +3752,7 @@
       <c r="D81" s="19"/>
       <c r="E81" s="12"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" ht="15">
       <c r="A82" s="20" t="s">
         <v>156</v>
       </c>
@@ -3723,7 +3765,7 @@
       <c r="D82" s="23"/>
       <c r="E82" s="15"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" ht="15">
       <c r="A83" s="16" t="s">
         <v>158</v>
       </c>
@@ -3736,7 +3778,7 @@
       <c r="D83" s="19"/>
       <c r="E83" s="12"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" ht="15">
       <c r="A84" s="20" t="s">
         <v>160</v>
       </c>
@@ -3749,7 +3791,7 @@
       <c r="D84" s="23"/>
       <c r="E84" s="15"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" ht="15">
       <c r="A85" s="16" t="s">
         <v>162</v>
       </c>
@@ -3762,7 +3804,7 @@
       <c r="D85" s="19"/>
       <c r="E85" s="12"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" ht="15">
       <c r="A86" s="20" t="s">
         <v>164</v>
       </c>
@@ -3775,7 +3817,7 @@
       <c r="D86" s="23"/>
       <c r="E86" s="15"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" ht="15">
       <c r="A87" s="16" t="s">
         <v>166</v>
       </c>
@@ -3788,7 +3830,7 @@
       <c r="D87" s="19"/>
       <c r="E87" s="12"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" ht="30">
       <c r="A88" s="20" t="s">
         <v>168</v>
       </c>
@@ -3801,7 +3843,7 @@
       <c r="D88" s="23"/>
       <c r="E88" s="15"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" ht="15">
       <c r="A89" s="16" t="s">
         <v>170</v>
       </c>
@@ -3814,7 +3856,7 @@
       <c r="D89" s="19"/>
       <c r="E89" s="12"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" ht="15">
       <c r="A90" s="20" t="s">
         <v>172</v>
       </c>
@@ -3827,9 +3869,9 @@
       <c r="D90" s="23"/>
       <c r="E90" s="15"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" ht="15">
       <c r="A91" s="10">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>174</v>
@@ -3838,7 +3880,7 @@
       <c r="D91" s="19"/>
       <c r="E91" s="12"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" ht="15">
       <c r="A92" s="20" t="s">
         <v>175</v>
       </c>
@@ -3851,7 +3893,7 @@
       <c r="D92" s="23"/>
       <c r="E92" s="15"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" ht="15">
       <c r="A93" s="16" t="s">
         <v>177</v>
       </c>
@@ -3864,7 +3906,7 @@
       <c r="D93" s="19"/>
       <c r="E93" s="12"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" ht="30">
       <c r="A94" s="20" t="s">
         <v>179</v>
       </c>
@@ -3877,7 +3919,7 @@
       </c>
       <c r="E94" s="15"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" ht="15">
       <c r="A95" s="16" t="s">
         <v>181</v>
       </c>
@@ -3890,7 +3932,7 @@
       <c r="D95" s="19"/>
       <c r="E95" s="12"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" ht="15">
       <c r="A96" s="20" t="s">
         <v>183</v>
       </c>
@@ -3903,7 +3945,7 @@
       <c r="D96" s="23"/>
       <c r="E96" s="15"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5" ht="15">
       <c r="A97" s="16" t="s">
         <v>185</v>
       </c>
@@ -3916,7 +3958,7 @@
       </c>
       <c r="E97" s="12"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5" ht="15">
       <c r="A98" s="20" t="s">
         <v>187</v>
       </c>
@@ -3929,7 +3971,7 @@
       </c>
       <c r="E98" s="15"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5" ht="15">
       <c r="A99" s="16" t="s">
         <v>189</v>
       </c>
@@ -3942,7 +3984,7 @@
       <c r="D99" s="19"/>
       <c r="E99" s="12"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" ht="15">
       <c r="A100" s="20" t="s">
         <v>191</v>
       </c>
@@ -3955,7 +3997,7 @@
       <c r="D100" s="23"/>
       <c r="E100" s="15"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" ht="15">
       <c r="A101" s="16" t="s">
         <v>193</v>
       </c>
@@ -3968,7 +4010,7 @@
       <c r="D101" s="19"/>
       <c r="E101" s="12"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:5" ht="15">
       <c r="A102" s="20" t="s">
         <v>195</v>
       </c>
@@ -3981,7 +4023,7 @@
       </c>
       <c r="E102" s="15"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:5" ht="15">
       <c r="A103" s="16" t="s">
         <v>197</v>
       </c>
@@ -3994,9 +4036,9 @@
       </c>
       <c r="E103" s="12"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5" ht="15">
       <c r="A104" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>199</v>
@@ -4005,7 +4047,7 @@
       <c r="D104" s="23"/>
       <c r="E104" s="15"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5" ht="15">
       <c r="A105" s="10">
         <v>3.1</v>
       </c>
@@ -4016,7 +4058,7 @@
       <c r="D105" s="19"/>
       <c r="E105" s="12"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:5" ht="30">
       <c r="A106" s="20" t="s">
         <v>201</v>
       </c>
@@ -4029,7 +4071,7 @@
       <c r="D106" s="23"/>
       <c r="E106" s="15"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:5" ht="15">
       <c r="A107" s="16" t="s">
         <v>203</v>
       </c>
@@ -4042,7 +4084,7 @@
       <c r="D107" s="19"/>
       <c r="E107" s="12"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5" ht="15">
       <c r="A108" s="20" t="s">
         <v>205</v>
       </c>
@@ -4055,7 +4097,7 @@
       <c r="D108" s="23"/>
       <c r="E108" s="15"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:5" ht="15">
       <c r="A109" s="16" t="s">
         <v>207</v>
       </c>
@@ -4068,7 +4110,7 @@
       <c r="D109" s="19"/>
       <c r="E109" s="12"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:5" ht="15">
       <c r="A110" s="20" t="s">
         <v>209</v>
       </c>
@@ -4081,7 +4123,7 @@
       </c>
       <c r="E110" s="15"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:5" ht="30">
       <c r="A111" s="16" t="s">
         <v>211</v>
       </c>
@@ -4094,7 +4136,7 @@
       <c r="D111" s="19"/>
       <c r="E111" s="12"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:5" ht="15">
       <c r="A112" s="13">
         <v>3.2</v>
       </c>
@@ -4105,7 +4147,7 @@
       <c r="D112" s="23"/>
       <c r="E112" s="15"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5" ht="30">
       <c r="A113" s="16" t="s">
         <v>214</v>
       </c>
@@ -4118,7 +4160,7 @@
       <c r="D113" s="19"/>
       <c r="E113" s="12"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:5" ht="15">
       <c r="A114" s="20" t="s">
         <v>216</v>
       </c>
@@ -4131,7 +4173,7 @@
       <c r="D114" s="23"/>
       <c r="E114" s="15"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:5" ht="15">
       <c r="A115" s="10">
         <v>3.3</v>
       </c>
@@ -4142,7 +4184,7 @@
       <c r="D115" s="19"/>
       <c r="E115" s="12"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:5" ht="15">
       <c r="A116" s="20" t="s">
         <v>219</v>
       </c>
@@ -4155,7 +4197,7 @@
       <c r="D116" s="23"/>
       <c r="E116" s="15"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:5" ht="15">
       <c r="A117" s="16" t="s">
         <v>221</v>
       </c>
@@ -4168,7 +4210,7 @@
       <c r="D117" s="19"/>
       <c r="E117" s="12"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:5" ht="15">
       <c r="A118" s="20" t="s">
         <v>223</v>
       </c>
@@ -4181,7 +4223,7 @@
       <c r="D118" s="23"/>
       <c r="E118" s="15"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:5" ht="15">
       <c r="A119" s="16" t="s">
         <v>225</v>
       </c>
@@ -4194,7 +4236,7 @@
       <c r="D119" s="19"/>
       <c r="E119" s="12"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:5" ht="15">
       <c r="A120" s="20" t="s">
         <v>227</v>
       </c>
@@ -4209,8 +4251,3104 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0620A0FA-E730-4004-AE7F-4B70BA3BBF10}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E120"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="77.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A6" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" ht="45">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A14" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" ht="30">
+      <c r="A19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" ht="30">
+      <c r="A25" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" ht="30">
+      <c r="A27" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="A28" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" ht="15">
+      <c r="A29" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" ht="15">
+      <c r="A30" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" ht="15">
+      <c r="A31" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" ht="15">
+      <c r="A32" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="15">
+      <c r="A33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" ht="15">
+      <c r="A34" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" ht="15">
+      <c r="A35" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" ht="15">
+      <c r="A36" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" ht="15">
+      <c r="A37" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" ht="15">
+      <c r="A38" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="15">
+      <c r="A39" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" ht="15">
+      <c r="A40" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5" ht="15">
+      <c r="A41" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" ht="15">
+      <c r="A42" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5" ht="15">
+      <c r="A43" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" ht="30">
+      <c r="A44" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" ht="15">
+      <c r="A45" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" ht="15">
+      <c r="A46" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5" ht="15">
+      <c r="A47" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" ht="15">
+      <c r="A48" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5" ht="15">
+      <c r="A49" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5" ht="30">
+      <c r="A50" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5" ht="30">
+      <c r="A51" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" ht="15">
+      <c r="A52" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="1:5" ht="30">
+      <c r="A53" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5" ht="15">
+      <c r="A54" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:5" ht="15">
+      <c r="A55" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:5" ht="15">
+      <c r="A56" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" spans="1:5" ht="30">
+      <c r="A57" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="35"/>
+      <c r="E57" s="12"/>
+    </row>
+    <row r="58" spans="1:5" ht="30">
+      <c r="A58" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="23"/>
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" spans="1:5" ht="30">
+      <c r="A59" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="12"/>
+    </row>
+    <row r="60" spans="1:5" ht="15">
+      <c r="A60" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="15">
+      <c r="A61" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:5" ht="15">
+      <c r="A62" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="23"/>
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" spans="1:5" ht="15">
+      <c r="A63" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64" spans="1:5" ht="15">
+      <c r="A64" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" ht="15">
+      <c r="A65" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="12"/>
+    </row>
+    <row r="66" spans="1:5" ht="15">
+      <c r="A66" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="15"/>
+    </row>
+    <row r="67" spans="1:5" ht="15">
+      <c r="A67" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="12"/>
+    </row>
+    <row r="68" spans="1:5" ht="15">
+      <c r="A68" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="15"/>
+    </row>
+    <row r="69" spans="1:5" ht="15">
+      <c r="A69" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="19"/>
+      <c r="E69" s="12"/>
+    </row>
+    <row r="70" spans="1:5" ht="15">
+      <c r="A70" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="23"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" ht="15">
+      <c r="A71" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="12"/>
+    </row>
+    <row r="72" spans="1:5" ht="15">
+      <c r="A72" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="15"/>
+    </row>
+    <row r="73" spans="1:5" ht="15">
+      <c r="A73" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="19"/>
+      <c r="E73" s="12"/>
+    </row>
+    <row r="74" spans="1:5" ht="15">
+      <c r="A74" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="23"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="1:5" ht="15">
+      <c r="A75" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="12"/>
+    </row>
+    <row r="76" spans="1:5" ht="15">
+      <c r="A76" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="23"/>
+      <c r="E76" s="15"/>
+    </row>
+    <row r="77" spans="1:5" ht="15">
+      <c r="A77" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="12"/>
+    </row>
+    <row r="78" spans="1:5" ht="15">
+      <c r="A78" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="23"/>
+      <c r="E78" s="15"/>
+    </row>
+    <row r="79" spans="1:5" ht="15">
+      <c r="A79" s="32">
+        <v>2</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="12"/>
+    </row>
+    <row r="80" spans="1:5" ht="15">
+      <c r="A80" s="13">
+        <v>2.1</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="15"/>
+    </row>
+    <row r="81" spans="1:5" ht="15">
+      <c r="A81" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="19"/>
+      <c r="E81" s="12"/>
+    </row>
+    <row r="82" spans="1:5" ht="15">
+      <c r="A82" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="23"/>
+      <c r="E82" s="15"/>
+    </row>
+    <row r="83" spans="1:5" ht="15">
+      <c r="A83" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="19"/>
+      <c r="E83" s="12"/>
+    </row>
+    <row r="84" spans="1:5" ht="15">
+      <c r="A84" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="23"/>
+      <c r="E84" s="15"/>
+    </row>
+    <row r="85" spans="1:5" ht="15">
+      <c r="A85" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="19"/>
+      <c r="E85" s="12"/>
+    </row>
+    <row r="86" spans="1:5" ht="15">
+      <c r="A86" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="23"/>
+      <c r="E86" s="15"/>
+    </row>
+    <row r="87" spans="1:5" ht="15">
+      <c r="A87" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="19"/>
+      <c r="E87" s="12"/>
+    </row>
+    <row r="88" spans="1:5" ht="30">
+      <c r="A88" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="23"/>
+      <c r="E88" s="15"/>
+    </row>
+    <row r="89" spans="1:5" ht="15">
+      <c r="A89" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="19"/>
+      <c r="E89" s="12"/>
+    </row>
+    <row r="90" spans="1:5" ht="15">
+      <c r="A90" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="23"/>
+      <c r="E90" s="15"/>
+    </row>
+    <row r="91" spans="1:5" ht="15">
+      <c r="A91" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="12"/>
+    </row>
+    <row r="92" spans="1:5" ht="15">
+      <c r="A92" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="23"/>
+      <c r="E92" s="15"/>
+    </row>
+    <row r="93" spans="1:5" ht="15">
+      <c r="A93" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="19"/>
+      <c r="E93" s="12"/>
+    </row>
+    <row r="94" spans="1:5" ht="30">
+      <c r="A94" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="15"/>
+    </row>
+    <row r="95" spans="1:5" ht="15">
+      <c r="A95" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="19"/>
+      <c r="E95" s="12"/>
+    </row>
+    <row r="96" spans="1:5" ht="15">
+      <c r="A96" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="23"/>
+      <c r="E96" s="15"/>
+    </row>
+    <row r="97" spans="1:5" ht="15">
+      <c r="A97" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="12"/>
+    </row>
+    <row r="98" spans="1:5" ht="15">
+      <c r="A98" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="15"/>
+    </row>
+    <row r="99" spans="1:5" ht="15">
+      <c r="A99" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="19"/>
+      <c r="E99" s="12"/>
+    </row>
+    <row r="100" spans="1:5" ht="15">
+      <c r="A100" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="23"/>
+      <c r="E100" s="15"/>
+    </row>
+    <row r="101" spans="1:5" ht="15">
+      <c r="A101" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="19"/>
+      <c r="E101" s="12"/>
+    </row>
+    <row r="102" spans="1:5" ht="15">
+      <c r="A102" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="15"/>
+    </row>
+    <row r="103" spans="1:5" ht="15">
+      <c r="A103" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="12"/>
+    </row>
+    <row r="104" spans="1:5" ht="15">
+      <c r="A104" s="13">
+        <v>3</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="15"/>
+    </row>
+    <row r="105" spans="1:5" ht="15">
+      <c r="A105" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="12"/>
+    </row>
+    <row r="106" spans="1:5" ht="30">
+      <c r="A106" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="23"/>
+      <c r="E106" s="15"/>
+    </row>
+    <row r="107" spans="1:5" ht="15">
+      <c r="A107" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="19"/>
+      <c r="E107" s="12"/>
+    </row>
+    <row r="108" spans="1:5" ht="15">
+      <c r="A108" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="23"/>
+      <c r="E108" s="15"/>
+    </row>
+    <row r="109" spans="1:5" ht="15">
+      <c r="A109" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="19"/>
+      <c r="E109" s="12"/>
+    </row>
+    <row r="110" spans="1:5" ht="15">
+      <c r="A110" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="15"/>
+    </row>
+    <row r="111" spans="1:5" ht="30">
+      <c r="A111" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="19"/>
+      <c r="E111" s="12"/>
+    </row>
+    <row r="112" spans="1:5" ht="15">
+      <c r="A112" s="13">
+        <v>3.2</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="15"/>
+    </row>
+    <row r="113" spans="1:5" ht="30">
+      <c r="A113" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="19"/>
+      <c r="E113" s="12"/>
+    </row>
+    <row r="114" spans="1:5" ht="15">
+      <c r="A114" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="23"/>
+      <c r="E114" s="15"/>
+    </row>
+    <row r="115" spans="1:5" ht="15">
+      <c r="A115" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="12"/>
+    </row>
+    <row r="116" spans="1:5" ht="15">
+      <c r="A116" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="23"/>
+      <c r="E116" s="15"/>
+    </row>
+    <row r="117" spans="1:5" ht="15">
+      <c r="A117" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="19"/>
+      <c r="E117" s="12"/>
+    </row>
+    <row r="118" spans="1:5" ht="15">
+      <c r="A118" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B118" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="23"/>
+      <c r="E118" s="15"/>
+    </row>
+    <row r="119" spans="1:5" ht="15">
+      <c r="A119" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="19"/>
+      <c r="E119" s="12"/>
+    </row>
+    <row r="120" spans="1:5" ht="15">
+      <c r="A120" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="23"/>
+      <c r="E120" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{74ACA3B6-B04B-446F-BD27-C295A78BCE86}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05178DF1-883F-46C2-BEBD-C119ECDF50AF}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="77.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A6" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" ht="45">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A14" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" ht="30">
+      <c r="A19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" ht="30">
+      <c r="A25" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" ht="30">
+      <c r="A27" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="A28" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" ht="15">
+      <c r="A29" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" ht="15">
+      <c r="A30" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" ht="15">
+      <c r="A31" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" ht="15">
+      <c r="A32" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="15">
+      <c r="A33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" ht="15">
+      <c r="A34" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" ht="15">
+      <c r="A35" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" ht="15">
+      <c r="A36" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" ht="15">
+      <c r="A37" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" ht="15">
+      <c r="A38" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="15">
+      <c r="A39" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" ht="15">
+      <c r="A40" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5" ht="15">
+      <c r="A41" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" ht="15">
+      <c r="A42" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5" ht="15">
+      <c r="A43" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" ht="30">
+      <c r="A44" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" ht="15">
+      <c r="A45" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" ht="15">
+      <c r="A46" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5" ht="15">
+      <c r="A47" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" ht="15">
+      <c r="A48" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5" ht="15">
+      <c r="A49" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5" ht="30">
+      <c r="A50" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5" ht="30">
+      <c r="A51" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" ht="15">
+      <c r="A52" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="1:5" ht="30">
+      <c r="A53" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5" ht="15">
+      <c r="A54" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:5" ht="15">
+      <c r="A55" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:5" ht="15">
+      <c r="A56" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" spans="1:5" ht="30">
+      <c r="A57" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="35"/>
+      <c r="E57" s="12"/>
+    </row>
+    <row r="58" spans="1:5" ht="30">
+      <c r="A58" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="23"/>
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" spans="1:5" ht="30">
+      <c r="A59" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="12"/>
+    </row>
+    <row r="60" spans="1:5" ht="15">
+      <c r="A60" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="15">
+      <c r="A61" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:5" ht="15">
+      <c r="A62" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="23"/>
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" spans="1:5" ht="15">
+      <c r="A63" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64" spans="1:5" ht="15">
+      <c r="A64" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" ht="15">
+      <c r="A65" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="12"/>
+    </row>
+    <row r="66" spans="1:5" ht="15">
+      <c r="A66" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="15"/>
+    </row>
+    <row r="67" spans="1:5" ht="15">
+      <c r="A67" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="12"/>
+    </row>
+    <row r="68" spans="1:5" ht="15">
+      <c r="A68" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="15"/>
+    </row>
+    <row r="69" spans="1:5" ht="15">
+      <c r="A69" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="19"/>
+      <c r="E69" s="12"/>
+    </row>
+    <row r="70" spans="1:5" ht="15">
+      <c r="A70" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="23"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" ht="15">
+      <c r="A71" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="12"/>
+    </row>
+    <row r="72" spans="1:5" ht="15">
+      <c r="A72" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="15"/>
+    </row>
+    <row r="73" spans="1:5" ht="15">
+      <c r="A73" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="19"/>
+      <c r="E73" s="12"/>
+    </row>
+    <row r="74" spans="1:5" ht="15">
+      <c r="A74" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="23"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="1:5" ht="15">
+      <c r="A75" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="12"/>
+    </row>
+    <row r="76" spans="1:5" ht="15">
+      <c r="A76" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="23"/>
+      <c r="E76" s="15"/>
+    </row>
+    <row r="77" spans="1:5" ht="15">
+      <c r="A77" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="12"/>
+    </row>
+    <row r="78" spans="1:5" ht="15">
+      <c r="A78" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="23"/>
+      <c r="E78" s="15"/>
+    </row>
+    <row r="79" spans="1:5" ht="15">
+      <c r="A79" s="32">
+        <v>2</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="12"/>
+    </row>
+    <row r="80" spans="1:5" ht="15">
+      <c r="A80" s="13">
+        <v>2.1</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="15"/>
+    </row>
+    <row r="81" spans="1:5" ht="15">
+      <c r="A81" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="19"/>
+      <c r="E81" s="12"/>
+    </row>
+    <row r="82" spans="1:5" ht="15">
+      <c r="A82" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="23"/>
+      <c r="E82" s="15"/>
+    </row>
+    <row r="83" spans="1:5" ht="15">
+      <c r="A83" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="19"/>
+      <c r="E83" s="12"/>
+    </row>
+    <row r="84" spans="1:5" ht="15">
+      <c r="A84" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="23"/>
+      <c r="E84" s="15"/>
+    </row>
+    <row r="85" spans="1:5" ht="15">
+      <c r="A85" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="19"/>
+      <c r="E85" s="12"/>
+    </row>
+    <row r="86" spans="1:5" ht="15">
+      <c r="A86" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="23"/>
+      <c r="E86" s="15"/>
+    </row>
+    <row r="87" spans="1:5" ht="15">
+      <c r="A87" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="19"/>
+      <c r="E87" s="12"/>
+    </row>
+    <row r="88" spans="1:5" ht="30">
+      <c r="A88" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="23"/>
+      <c r="E88" s="15"/>
+    </row>
+    <row r="89" spans="1:5" ht="15">
+      <c r="A89" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="19"/>
+      <c r="E89" s="12"/>
+    </row>
+    <row r="90" spans="1:5" ht="15">
+      <c r="A90" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="23"/>
+      <c r="E90" s="15"/>
+    </row>
+    <row r="91" spans="1:5" ht="15">
+      <c r="A91" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="12"/>
+    </row>
+    <row r="92" spans="1:5" ht="15">
+      <c r="A92" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="23"/>
+      <c r="E92" s="15"/>
+    </row>
+    <row r="93" spans="1:5" ht="15">
+      <c r="A93" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="19"/>
+      <c r="E93" s="12"/>
+    </row>
+    <row r="94" spans="1:5" ht="30">
+      <c r="A94" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="15"/>
+    </row>
+    <row r="95" spans="1:5" ht="15">
+      <c r="A95" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="19"/>
+      <c r="E95" s="12"/>
+    </row>
+    <row r="96" spans="1:5" ht="15">
+      <c r="A96" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="23"/>
+      <c r="E96" s="15"/>
+    </row>
+    <row r="97" spans="1:5" ht="15">
+      <c r="A97" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="12"/>
+    </row>
+    <row r="98" spans="1:5" ht="15">
+      <c r="A98" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="15"/>
+    </row>
+    <row r="99" spans="1:5" ht="15">
+      <c r="A99" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="19"/>
+      <c r="E99" s="12"/>
+    </row>
+    <row r="100" spans="1:5" ht="15">
+      <c r="A100" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="23"/>
+      <c r="E100" s="15"/>
+    </row>
+    <row r="101" spans="1:5" ht="15">
+      <c r="A101" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="19"/>
+      <c r="E101" s="12"/>
+    </row>
+    <row r="102" spans="1:5" ht="15">
+      <c r="A102" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="15"/>
+    </row>
+    <row r="103" spans="1:5" ht="15">
+      <c r="A103" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="12"/>
+    </row>
+    <row r="104" spans="1:5" ht="15">
+      <c r="A104" s="13">
+        <v>3</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="15"/>
+    </row>
+    <row r="105" spans="1:5" ht="15">
+      <c r="A105" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="12"/>
+    </row>
+    <row r="106" spans="1:5" ht="30">
+      <c r="A106" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="23"/>
+      <c r="E106" s="15"/>
+    </row>
+    <row r="107" spans="1:5" ht="15">
+      <c r="A107" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="19"/>
+      <c r="E107" s="12"/>
+    </row>
+    <row r="108" spans="1:5" ht="15">
+      <c r="A108" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="23"/>
+      <c r="E108" s="15"/>
+    </row>
+    <row r="109" spans="1:5" ht="15">
+      <c r="A109" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="19"/>
+      <c r="E109" s="12"/>
+    </row>
+    <row r="110" spans="1:5" ht="15">
+      <c r="A110" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="15"/>
+    </row>
+    <row r="111" spans="1:5" ht="30">
+      <c r="A111" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="19"/>
+      <c r="E111" s="12"/>
+    </row>
+    <row r="112" spans="1:5" ht="15">
+      <c r="A112" s="13">
+        <v>3.2</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="15"/>
+    </row>
+    <row r="113" spans="1:5" ht="30">
+      <c r="A113" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="19"/>
+      <c r="E113" s="12"/>
+    </row>
+    <row r="114" spans="1:5" ht="15">
+      <c r="A114" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="23"/>
+      <c r="E114" s="15"/>
+    </row>
+    <row r="115" spans="1:5" ht="15">
+      <c r="A115" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="12"/>
+    </row>
+    <row r="116" spans="1:5" ht="15">
+      <c r="A116" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="23"/>
+      <c r="E116" s="15"/>
+    </row>
+    <row r="117" spans="1:5" ht="15">
+      <c r="A117" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="19"/>
+      <c r="E117" s="12"/>
+    </row>
+    <row r="118" spans="1:5" ht="15">
+      <c r="A118" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B118" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="23"/>
+      <c r="E118" s="15"/>
+    </row>
+    <row r="119" spans="1:5" ht="15">
+      <c r="A119" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="19"/>
+      <c r="E119" s="12"/>
+    </row>
+    <row r="120" spans="1:5" ht="15">
+      <c r="A120" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="23"/>
+      <c r="E120" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{668E68D3-F45D-417B-9365-FEA557E42BF6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>